--- a/assets/uploads/templates/ajustes.xlsx
+++ b/assets/uploads/templates/ajustes.xlsx
@@ -29,13 +29,13 @@
     <t>AJUSTE DE PRECIOS</t>
   </si>
   <si>
-    <t>CÓDIGO</t>
+    <t>CÓDIGO CAJA</t>
   </si>
   <si>
-    <t>DESCRIPCIÓN</t>
+    <t>DESCRIPCIÓN CAJA</t>
   </si>
   <si>
-    <t>PRECIO</t>
+    <t>PRECIO CAJA</t>
   </si>
 </sst>
 </file>
@@ -97,15 +97,15 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -391,31 +391,31 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="50.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
